--- a/Team-Data/2011-12/3-20-2011-12.xlsx
+++ b/Team-Data/2011-12/3-20-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -786,22 +853,22 @@
         <v>25</v>
       </c>
       <c r="AR2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT2" t="n">
         <v>25</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>20</v>
@@ -819,7 +886,7 @@
         <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -950,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -959,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -986,10 +1053,10 @@
         <v>21</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1162,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>5</v>
@@ -1317,7 +1384,7 @@
         <v>18</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
@@ -1353,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1496,31 +1563,31 @@
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
         <v>23</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>19</v>
@@ -1547,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="BC6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
@@ -1675,22 +1742,22 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>14</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>13</v>
@@ -1854,19 +1921,19 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1878,13 +1945,13 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1896,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2218,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
@@ -2233,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.532</v>
+        <v>0.522</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J11" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.453</v>
@@ -2334,31 +2401,31 @@
         <v>19.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O11" t="n">
         <v>15.7</v>
       </c>
       <c r="P11" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S11" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T11" t="n">
         <v>41.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2376,16 +2443,16 @@
         <v>18.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2403,37 +2470,37 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL11" t="n">
         <v>11</v>
       </c>
-      <c r="AL11" t="n">
-        <v>10</v>
-      </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS11" t="n">
         <v>17</v>
       </c>
       <c r="AT11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV11" t="n">
         <v>16</v>
@@ -2448,7 +2515,7 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,37 +2571,37 @@
         <v>34.8</v>
       </c>
       <c r="J12" t="n">
-        <v>80.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L12" t="n">
         <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.358</v>
       </c>
       <c r="O12" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P12" t="n">
         <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.776</v>
+        <v>0.773</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>18</v>
@@ -2543,10 +2610,10 @@
         <v>14.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y12" t="n">
         <v>6.1</v>
@@ -2558,25 +2625,25 @@
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG12" t="n">
         <v>8</v>
       </c>
-      <c r="AF12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7</v>
-      </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>25</v>
@@ -2588,13 +2655,13 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,25 +2670,25 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.578</v>
+        <v>0.591</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
@@ -2698,31 +2765,31 @@
         <v>21.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R13" t="n">
         <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T13" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W13" t="n">
         <v>8</v>
@@ -2731,31 +2798,31 @@
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
@@ -2764,7 +2831,7 @@
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>13</v>
@@ -2776,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2788,22 +2855,22 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX13" t="n">
         <v>19</v>
@@ -2818,10 +2885,10 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.609</v>
+        <v>0.622</v>
       </c>
       <c r="H14" t="n">
         <v>48.7</v>
       </c>
       <c r="I14" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J14" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L14" t="n">
         <v>5.3</v>
@@ -2880,25 +2947,25 @@
         <v>17.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.308</v>
+        <v>0.306</v>
       </c>
       <c r="O14" t="n">
         <v>18.2</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R14" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="T14" t="n">
-        <v>45.5</v>
+        <v>45.8</v>
       </c>
       <c r="U14" t="n">
         <v>21.4</v>
@@ -2913,22 +2980,22 @@
         <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2937,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>4</v>
@@ -2946,10 +3013,10 @@
         <v>18</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2997,7 +3064,7 @@
         <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3099,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
         <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.319</v>
+        <v>0.321</v>
       </c>
       <c r="O15" t="n">
         <v>17.6</v>
@@ -3071,64 +3138,64 @@
         <v>23.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T15" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U15" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V15" t="n">
         <v>14.9</v>
       </c>
       <c r="W15" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA15" t="n">
         <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
         <v>12</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AJ15" t="n">
         <v>8</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>14</v>
@@ -3146,19 +3213,19 @@
         <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3176,16 +3243,16 @@
         <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -3214,55 +3281,55 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.482</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M16" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="O16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P16" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T16" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
@@ -3271,37 +3338,37 @@
         <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z16" t="n">
         <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
         <v>101.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>2</v>
@@ -3331,10 +3398,10 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
         <v>8</v>
@@ -3358,7 +3425,7 @@
         <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -3396,100 +3463,100 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="J17" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
         <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.339</v>
       </c>
       <c r="O17" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P17" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R17" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="S17" t="n">
         <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V17" t="n">
         <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z17" t="n">
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.4</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3498,7 +3565,7 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>12</v>
@@ -3507,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3516,13 +3583,13 @@
         <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3531,25 +3598,25 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BC17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3726,7 @@
         <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>18</v>
@@ -3671,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
@@ -3680,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -3856,10 +3923,10 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>3</v>
@@ -3877,7 +3944,7 @@
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>12</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4056,22 +4123,22 @@
         <v>28</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.478</v>
+        <v>0.467</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
         <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
         <v>7.2</v>
       </c>
       <c r="M21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N21" t="n">
         <v>0.322</v>
       </c>
       <c r="O21" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P21" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S21" t="n">
         <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X21" t="n">
         <v>4.3</v>
@@ -4193,16 +4260,16 @@
         <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
@@ -4214,31 +4281,31 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
       </c>
       <c r="AP21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ21" t="n">
         <v>20</v>
@@ -4250,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
         <v>22</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="n">
         <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.739</v>
+        <v>0.756</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>7.2</v>
@@ -4336,7 +4403,7 @@
         <v>20.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O22" t="n">
         <v>21.5</v>
@@ -4345,19 +4412,19 @@
         <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
         <v>43.3</v>
       </c>
       <c r="U22" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="V22" t="n">
         <v>16.6</v>
@@ -4366,40 +4433,40 @@
         <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.4</v>
+        <v>102.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4408,13 +4475,13 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>11</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4435,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4447,10 +4514,10 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -4572,10 +4639,10 @@
         <v>4</v>
       </c>
       <c r="AF23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH23" t="n">
         <v>12</v>
@@ -4608,10 +4675,10 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>11</v>
@@ -4641,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>8</v>
@@ -4760,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>6</v>
@@ -4772,7 +4839,7 @@
         <v>12</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>24</v>
@@ -4790,7 +4857,7 @@
         <v>23</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
@@ -4805,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
         <v>81.7</v>
@@ -4879,25 +4946,25 @@
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O25" t="n">
         <v>15.6</v>
       </c>
       <c r="P25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T25" t="n">
         <v>41.8</v>
@@ -4906,19 +4973,19 @@
         <v>22.7</v>
       </c>
       <c r="V25" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y25" t="n">
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="AA25" t="n">
         <v>19.2</v>
@@ -4930,28 +4997,28 @@
         <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>14</v>
@@ -4963,16 +5030,16 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
         <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
@@ -4984,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>26</v>
@@ -5005,7 +5072,7 @@
         <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -5034,100 +5101,100 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.457</v>
+        <v>0.467</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O26" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W26" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
         <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
         <v>11</v>
@@ -5142,7 +5209,7 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
@@ -5154,41 +5221,41 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU26" t="n">
         <v>17</v>
       </c>
-      <c r="AS26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>18</v>
-      </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW26" t="n">
         <v>9</v>
       </c>
       <c r="AX26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC26" t="n">
         <v>14</v>
       </c>
-      <c r="AY26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>15</v>
-      </c>
       <c r="BD26" t="n">
         <v>10</v>
       </c>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
         <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.37</v>
+        <v>0.356</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="L27" t="n">
         <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O27" t="n">
         <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R27" t="n">
         <v>13.4</v>
       </c>
       <c r="S27" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T27" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U27" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="V27" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>8.199999999999999</v>
@@ -5279,25 +5346,25 @@
         <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
         <v>19.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5309,31 +5376,31 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,16 +5409,16 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5366,7 +5433,7 @@
         <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>18</v>
@@ -5524,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J29" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M29" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="O29" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P29" t="n">
         <v>21.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R29" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S29" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T29" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
         <v>15.4</v>
@@ -5640,7 +5707,7 @@
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
@@ -5649,16 +5716,16 @@
         <v>24.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4.1</v>
+        <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5682,16 +5749,16 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
         <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
@@ -5700,16 +5767,16 @@
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV29" t="n">
         <v>23</v>
@@ -5721,19 +5788,19 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -5762,19 +5829,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.522</v>
+        <v>0.511</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I30" t="n">
         <v>37.8</v>
@@ -5783,7 +5850,7 @@
         <v>83.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
         <v>3.7</v>
@@ -5792,19 +5859,19 @@
         <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>0.308</v>
+        <v>0.304</v>
       </c>
       <c r="O30" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P30" t="n">
         <v>24.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S30" t="n">
         <v>30.3</v>
@@ -5822,28 +5889,28 @@
         <v>8.5</v>
       </c>
       <c r="X30" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
         <v>97.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5870,7 +5937,7 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,22 +5946,22 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU30" t="n">
         <v>12</v>
       </c>
       <c r="AV30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5909,13 +5976,13 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6052,7 +6119,7 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
         <v>19</v>
@@ -6070,7 +6137,7 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6079,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-20-2011-12</t>
+          <t>2012-03-20</t>
         </is>
       </c>
     </row>
